--- a/new_pre_processing/mlist.xlsx
+++ b/new_pre_processing/mlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\Desktop\seuratwork\label transfer\New Data 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\AppData\Roaming\MobaXterm\slash\RemoteFiles\198006_2_49\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB967A0A-6691-4B2C-8332-9E2BCE8FCE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53013CD3-8432-41EA-9721-A974F8BC007E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3517" yWindow="1890" windowWidth="16200" windowHeight="9315" xr2:uid="{DD7C21F5-C340-4648-990C-65213BE3960D}"/>
+    <workbookView xWindow="4335" yWindow="2745" windowWidth="16200" windowHeight="9315" xr2:uid="{DD7C21F5-C340-4648-990C-65213BE3960D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="739">
   <si>
     <t>DC1_gene</t>
   </si>
@@ -2233,6 +2233,48 @@
   </si>
   <si>
     <t>Smooth Muscle_gene</t>
+  </si>
+  <si>
+    <t>ILGR</t>
+  </si>
+  <si>
+    <t>CIITA</t>
+  </si>
+  <si>
+    <t>CD86</t>
+  </si>
+  <si>
+    <t>CD40</t>
+  </si>
+  <si>
+    <t>CD274</t>
+  </si>
+  <si>
+    <t>Mature DC_gene</t>
+  </si>
+  <si>
+    <t>Semi-Mature DC_gene</t>
+  </si>
+  <si>
+    <t>ILG</t>
+  </si>
+  <si>
+    <t>IL1A</t>
+  </si>
+  <si>
+    <t>ITGAX</t>
+  </si>
+  <si>
+    <t>THBD</t>
+  </si>
+  <si>
+    <t>MRC1-1</t>
+  </si>
+  <si>
+    <t>Macrophage_gene</t>
+  </si>
+  <si>
+    <t>LC_gene</t>
   </si>
 </sst>
 </file>
@@ -2600,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5F15C6-E92A-EE4D-AF95-B79CF84F9470}">
-  <dimension ref="A1:DS32"/>
+  <dimension ref="A1:DW32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DK1" workbookViewId="0">
-      <selection activeCell="DT2" sqref="DT2"/>
+    <sheetView tabSelected="1" topLeftCell="DQ1" workbookViewId="0">
+      <selection activeCell="DU4" sqref="DU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2612,14 +2654,16 @@
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="118" max="118" width="24.125" customWidth="1"/>
     <col min="123" max="123" width="20.3125" customWidth="1"/>
+    <col min="124" max="124" width="14.9375" customWidth="1"/>
+    <col min="125" max="125" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="2" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:127" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2986,8 +3030,20 @@
       <c r="DS2" t="s">
         <v>724</v>
       </c>
+      <c r="DT2" t="s">
+        <v>730</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>731</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>737</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>738</v>
+      </c>
     </row>
-    <row r="3" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3357,8 +3413,20 @@
       <c r="DS3" t="s">
         <v>596</v>
       </c>
+      <c r="DT3" t="s">
+        <v>725</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>732</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>305</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3728,8 +3796,20 @@
       <c r="DS4" t="s">
         <v>154</v>
       </c>
+      <c r="DT4" t="s">
+        <v>138</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>733</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>736</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="5" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4099,8 +4179,17 @@
       <c r="DS5" t="s">
         <v>129</v>
       </c>
+      <c r="DT5" t="s">
+        <v>726</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>379</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>414</v>
+      </c>
     </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4470,8 +4559,14 @@
       <c r="DS6" t="s">
         <v>243</v>
       </c>
+      <c r="DT6" t="s">
+        <v>727</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>734</v>
+      </c>
     </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4838,8 +4933,14 @@
       <c r="DS7" t="s">
         <v>326</v>
       </c>
+      <c r="DT7" t="s">
+        <v>728</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>414</v>
+      </c>
     </row>
-    <row r="8" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5194,8 +5295,14 @@
       <c r="DN8">
         <v>33.893394000000001</v>
       </c>
+      <c r="DT8" t="s">
+        <v>729</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>735</v>
+      </c>
     </row>
-    <row r="9" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5551,7 +5658,7 @@
         <v>10.3380375</v>
       </c>
     </row>
-    <row r="10" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5907,7 +6014,7 @@
         <v>6.2136754999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6263,7 +6370,7 @@
         <v>10.151676</v>
       </c>
     </row>
-    <row r="12" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6619,7 +6726,7 @@
         <v>19.432661</v>
       </c>
     </row>
-    <row r="13" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6977,7 +7084,7 @@
         <v>13.223959000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7333,7 +7440,7 @@
         <v>12.106557</v>
       </c>
     </row>
-    <row r="15" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -7690,7 +7797,7 @@
         <v>26.906103000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:123" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:127" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>14</v>
       </c>
